--- a/6_Advanced_Data_Analytics/1_Analysis_Add-ins.xlsx
+++ b/6_Advanced_Data_Analytics/1_Analysis_Add-ins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\Projects\Excel_For_Data_Analytics\6_Advanced_Data_Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\Projects\Excel_For_Data_Analytics_1\Excel_Project_Data_Analytics\6_Advanced_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84D9F4-3479-4F01-B337-29C3766619A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05450743-BD6B-47C4-91B5-9F11F177E9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
@@ -27800,7 +27800,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
